--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ443Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ443Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2AF432-FDD1-4DF0-9E51-FCC7E4293B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEB867-9DFE-4D67-8313-DDB7D9904E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -425,6 +421,12 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -995,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1017,7 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>54</v>
@@ -1043,10 +1045,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1147,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
@@ -1166,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -1180,12 +1182,12 @@
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>17</v>
@@ -1198,7 +1200,7 @@
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1219,7 +1221,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1227,20 +1229,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="15">
         <v>50</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1254,14 +1256,14 @@
         <v>39</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1269,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>40</v>
@@ -1307,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>42</v>
@@ -1364,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>45</v>
@@ -1383,7 +1385,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>46</v>
@@ -1421,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>48</v>
@@ -1440,7 +1442,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>49</v>
@@ -1472,7 +1474,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>52</v>
@@ -2150,24 +2152,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
